--- a/AssignmentWeek1/ProductionPivot_Solved.xlsx
+++ b/AssignmentWeek1/ProductionPivot_Solved.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\NSU-GitLab\nsu-nfx-data-pt-01-2021-e-lol\02-Assignments\01-Introduction\01-Exploring_Plotting_Excel\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\GitHub\NSU-Assignments\AssignmentWeek1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8385B2FE-6050-40D2-9717-BAB1AAF86F40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED7FF2-20D9-43A1-8964-A4F87889BC31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="4125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-Q2" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="266" r:id="rId5"/>
-    <pivotCache cacheId="267" r:id="rId6"/>
-    <pivotCache cacheId="305" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="41">
   <si>
     <t>Product Name</t>
   </si>
@@ -188,22 +188,16 @@
     <t>Average of Total</t>
   </si>
   <si>
-    <t>2340257-2390256</t>
+    <t>2340257-3340256</t>
   </si>
   <si>
-    <t>3390257-3440256</t>
+    <t>3340257-4340256</t>
   </si>
   <si>
-    <t>3440257-3490256</t>
+    <t>4340257-5340256</t>
   </si>
   <si>
-    <t>4490257-4540256</t>
-  </si>
-  <si>
-    <t>6840257-6890256</t>
-  </si>
-  <si>
-    <t>7290257-7340256</t>
+    <t>6340257-7340256</t>
   </si>
 </sst>
 </file>
@@ -944,19 +938,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1174,6 +1156,1842 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1207,53 +3025,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'BonusQ5-Q7'!$A$4:$A$10</c:f>
+              <c:f>'BonusQ5-Q7'!$A$4:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2340257-2390256</c:v>
+                  <c:v>2340257-3340256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3390257-3440256</c:v>
+                  <c:v>3340257-4340256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3440257-3490256</c:v>
+                  <c:v>4340257-5340256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4490257-4540256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6840257-6890256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7290257-7340256</c:v>
+                  <c:v>6340257-7340256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BonusQ5-Q7'!$B$4:$B$10</c:f>
+              <c:f>'BonusQ5-Q7'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>24.042999999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.73536082474228</c:v>
+                  <c:v>22.029162561576307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.043301886792445</c:v>
+                  <c:v>25.641084337349408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.641084337349408</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.159270833333345</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.694907407407413</c:v>
+                  <c:v>20.501666666666633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,15 +4387,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2908,109 +4714,14 @@
         <m/>
       </sharedItems>
       <fieldGroup base="0">
-        <rangePr startNum="2340257" endNum="7294712" groupInterval="50000"/>
-        <groupItems count="102">
+        <rangePr startNum="2340257" endNum="7294712" groupInterval="1000000"/>
+        <groupItems count="7">
           <s v="(blank)"/>
-          <s v="2340257-2390256"/>
-          <s v="2390257-2440256"/>
-          <s v="2440257-2490256"/>
-          <s v="2490257-2540256"/>
-          <s v="2540257-2590256"/>
-          <s v="2590257-2640256"/>
-          <s v="2640257-2690256"/>
-          <s v="2690257-2740256"/>
-          <s v="2740257-2790256"/>
-          <s v="2790257-2840256"/>
-          <s v="2840257-2890256"/>
-          <s v="2890257-2940256"/>
-          <s v="2940257-2990256"/>
-          <s v="2990257-3040256"/>
-          <s v="3040257-3090256"/>
-          <s v="3090257-3140256"/>
-          <s v="3140257-3190256"/>
-          <s v="3190257-3240256"/>
-          <s v="3240257-3290256"/>
-          <s v="3290257-3340256"/>
-          <s v="3340257-3390256"/>
-          <s v="3390257-3440256"/>
-          <s v="3440257-3490256"/>
-          <s v="3490257-3540256"/>
-          <s v="3540257-3590256"/>
-          <s v="3590257-3640256"/>
-          <s v="3640257-3690256"/>
-          <s v="3690257-3740256"/>
-          <s v="3740257-3790256"/>
-          <s v="3790257-3840256"/>
-          <s v="3840257-3890256"/>
-          <s v="3890257-3940256"/>
-          <s v="3940257-3990256"/>
-          <s v="3990257-4040256"/>
-          <s v="4040257-4090256"/>
-          <s v="4090257-4140256"/>
-          <s v="4140257-4190256"/>
-          <s v="4190257-4240256"/>
-          <s v="4240257-4290256"/>
-          <s v="4290257-4340256"/>
-          <s v="4340257-4390256"/>
-          <s v="4390257-4440256"/>
-          <s v="4440257-4490256"/>
-          <s v="4490257-4540256"/>
-          <s v="4540257-4590256"/>
-          <s v="4590257-4640256"/>
-          <s v="4640257-4690256"/>
-          <s v="4690257-4740256"/>
-          <s v="4740257-4790256"/>
-          <s v="4790257-4840256"/>
-          <s v="4840257-4890256"/>
-          <s v="4890257-4940256"/>
-          <s v="4940257-4990256"/>
-          <s v="4990257-5040256"/>
-          <s v="5040257-5090256"/>
-          <s v="5090257-5140256"/>
-          <s v="5140257-5190256"/>
-          <s v="5190257-5240256"/>
-          <s v="5240257-5290256"/>
-          <s v="5290257-5340256"/>
-          <s v="5340257-5390256"/>
-          <s v="5390257-5440256"/>
-          <s v="5440257-5490256"/>
-          <s v="5490257-5540256"/>
-          <s v="5540257-5590256"/>
-          <s v="5590257-5640256"/>
-          <s v="5640257-5690256"/>
-          <s v="5690257-5740256"/>
-          <s v="5740257-5790256"/>
-          <s v="5790257-5840256"/>
-          <s v="5840257-5890256"/>
-          <s v="5890257-5940256"/>
-          <s v="5940257-5990256"/>
-          <s v="5990257-6040256"/>
-          <s v="6040257-6090256"/>
-          <s v="6090257-6140256"/>
-          <s v="6140257-6190256"/>
-          <s v="6190257-6240256"/>
-          <s v="6240257-6290256"/>
-          <s v="6290257-6340256"/>
-          <s v="6340257-6390256"/>
-          <s v="6390257-6440256"/>
-          <s v="6440257-6490256"/>
-          <s v="6490257-6540256"/>
-          <s v="6540257-6590256"/>
-          <s v="6590257-6640256"/>
-          <s v="6640257-6690256"/>
-          <s v="6690257-6740256"/>
-          <s v="6740257-6790256"/>
-          <s v="6790257-6840256"/>
-          <s v="6840257-6890256"/>
-          <s v="6890257-6940256"/>
-          <s v="6940257-6990256"/>
-          <s v="6990257-7040256"/>
-          <s v="7040257-7090256"/>
-          <s v="7090257-7140256"/>
-          <s v="7140257-7190256"/>
-          <s v="7190257-7240256"/>
-          <s v="7240257-7290256"/>
-          <s v="7290257-7340256"/>
+          <s v="2340257-3340256"/>
+          <s v="3340257-4340256"/>
+          <s v="4340257-5340256"/>
+          <s v="5340257-6340256"/>
+          <s v="6340257-7340256"/>
           <s v="&gt;7340257"/>
         </groupItems>
       </fieldGroup>
@@ -3034,7 +4745,73 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="7.25"/>
     </cacheField>
     <cacheField name="Total" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.49" maxValue="117.24"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.49" maxValue="117.24" count="65">
+        <n v="11.45"/>
+        <n v="20.990000000000002"/>
+        <n v="18.2"/>
+        <n v="6.74"/>
+        <n v="15.2"/>
+        <n v="10.5"/>
+        <n v="24.96"/>
+        <n v="11.76"/>
+        <n v="8.99"/>
+        <n v="32.489999999999995"/>
+        <n v="22.71"/>
+        <n v="22.21"/>
+        <n v="9.51"/>
+        <n v="15.95"/>
+        <n v="7.17"/>
+        <n v="114.99"/>
+        <n v="117.24"/>
+        <n v="9.42"/>
+        <n v="11.24"/>
+        <n v="20.46"/>
+        <n v="17.240000000000002"/>
+        <n v="7.26"/>
+        <n v="34.739999999999995"/>
+        <n v="24.74"/>
+        <n v="13.7"/>
+        <n v="12.74"/>
+        <n v="10.49"/>
+        <n v="10.7"/>
+        <n v="15.46"/>
+        <n v="18.28"/>
+        <n v="26.99"/>
+        <n v="4.92"/>
+        <n v="20.49"/>
+        <n v="17.71"/>
+        <n v="110.49"/>
+        <n v="4.49"/>
+        <n v="16.490000000000002"/>
+        <n v="24.99"/>
+        <n v="10.74"/>
+        <n v="16.03"/>
+        <n v="29.24"/>
+        <n v="14.01"/>
+        <n v="112.74"/>
+        <n v="39.239999999999995"/>
+        <n v="23.240000000000002"/>
+        <n v="18.740000000000002"/>
+        <n v="15"/>
+        <n v="14.99"/>
+        <n v="11.67"/>
+        <n v="27.21"/>
+        <n v="8.49"/>
+        <n v="27.24"/>
+        <n v="22.49"/>
+        <n v="12.75"/>
+        <n v="13.78"/>
+        <n v="8.25"/>
+        <n v="15.24"/>
+        <n v="12.95"/>
+        <n v="19.96"/>
+        <n v="20.53"/>
+        <n v="12.99"/>
+        <n v="22.74"/>
+        <n v="8.4499999999999993"/>
+        <n v="36.989999999999995"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3055,7 +4832,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -3065,7 +4842,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -3075,7 +4852,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -3085,7 +4862,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -3095,7 +4872,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
@@ -3105,7 +4882,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -3115,7 +4892,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="3"/>
@@ -3125,7 +4902,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -3135,7 +4912,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -3145,7 +4922,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="3"/>
@@ -3155,7 +4932,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="2"/>
@@ -3165,7 +4942,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
@@ -3175,7 +4952,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="3"/>
@@ -3185,7 +4962,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="1"/>
@@ -3195,7 +4972,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="3"/>
@@ -3205,7 +4982,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -3215,7 +4992,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -3225,7 +5002,7 @@
     <s v="High"/>
     <n v="10.95"/>
     <n v="5"/>
-    <n v="15.95"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="4"/>
@@ -3235,7 +5012,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -3245,7 +5022,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="1"/>
@@ -3255,7 +5032,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="4"/>
@@ -3265,7 +5042,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="5"/>
@@ -3275,7 +5052,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="4"/>
@@ -3285,7 +5062,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="2"/>
@@ -3295,7 +5072,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="5"/>
@@ -3305,7 +5082,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="4"/>
@@ -3315,7 +5092,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="1"/>
@@ -3325,7 +5102,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="3"/>
@@ -3335,7 +5112,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
@@ -3345,7 +5122,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
@@ -3355,7 +5132,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="5"/>
@@ -3365,7 +5142,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
@@ -3375,7 +5152,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="3"/>
@@ -3385,7 +5162,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="1"/>
@@ -3395,7 +5172,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="1"/>
@@ -3405,7 +5182,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="2"/>
@@ -3415,7 +5192,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="4"/>
@@ -3425,7 +5202,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="0"/>
@@ -3435,7 +5212,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="4"/>
@@ -3445,7 +5222,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="5"/>
@@ -3455,7 +5232,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -3465,7 +5242,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -3475,7 +5252,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
@@ -3485,7 +5262,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="3"/>
@@ -3495,7 +5272,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="5"/>
@@ -3505,7 +5282,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="1"/>
@@ -3515,7 +5292,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="2"/>
@@ -3525,7 +5302,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="0"/>
@@ -3535,7 +5312,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="5"/>
@@ -3545,7 +5322,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="5"/>
@@ -3555,7 +5332,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="1"/>
@@ -3565,7 +5342,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="0"/>
@@ -3575,7 +5352,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="0"/>
@@ -3585,7 +5362,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="0"/>
@@ -3595,7 +5372,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="1"/>
@@ -3605,7 +5382,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="4"/>
@@ -3615,7 +5392,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="5"/>
@@ -3625,7 +5402,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="4"/>
@@ -3635,7 +5412,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="0"/>
@@ -3645,7 +5422,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -3655,7 +5432,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -3665,7 +5442,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -3675,7 +5452,7 @@
     <s v="High"/>
     <n v="10.95"/>
     <n v="5"/>
-    <n v="15.95"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="4"/>
@@ -3685,7 +5462,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
@@ -3695,7 +5472,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
@@ -3705,7 +5482,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="0"/>
@@ -3715,7 +5492,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="4"/>
@@ -3725,7 +5502,7 @@
     <s v="Medium"/>
     <n v="7.99"/>
     <n v="2.75"/>
-    <n v="10.74"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="4"/>
@@ -3735,7 +5512,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="1"/>
@@ -3745,7 +5522,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="3"/>
@@ -3755,7 +5532,7 @@
     <s v="Medium"/>
     <n v="13.28"/>
     <n v="2.75"/>
-    <n v="16.03"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="0"/>
@@ -3765,7 +5542,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="2"/>
@@ -3775,7 +5552,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="3"/>
@@ -3785,7 +5562,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="1"/>
@@ -3795,7 +5572,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -3805,7 +5582,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="2"/>
@@ -3815,7 +5592,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="4"/>
@@ -3825,7 +5602,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="4"/>
@@ -3835,7 +5612,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="3"/>
@@ -3845,7 +5622,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="5"/>
@@ -3855,7 +5632,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="2"/>
@@ -3865,7 +5642,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -3875,7 +5652,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="2"/>
@@ -3885,7 +5662,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="1"/>
@@ -3895,7 +5672,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="0"/>
@@ -3905,7 +5682,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="2"/>
@@ -3915,7 +5692,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="3"/>
@@ -3925,7 +5702,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="4"/>
@@ -3935,7 +5712,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -3945,7 +5722,7 @@
     <s v="Medium"/>
     <n v="7.99"/>
     <n v="2.75"/>
-    <n v="10.74"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="0"/>
@@ -3955,7 +5732,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="3"/>
@@ -3965,7 +5742,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="3"/>
@@ -3975,7 +5752,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="2"/>
@@ -3985,7 +5762,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -3995,7 +5772,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="4"/>
@@ -4005,7 +5782,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="3"/>
@@ -4015,7 +5792,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="0"/>
@@ -4025,7 +5802,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
@@ -4035,7 +5812,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="0"/>
@@ -4045,7 +5822,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="5"/>
@@ -4055,7 +5832,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="4"/>
@@ -4065,7 +5842,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -4075,7 +5852,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="5"/>
@@ -4085,7 +5862,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="5"/>
@@ -4095,7 +5872,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="2"/>
@@ -4105,7 +5882,7 @@
     <s v="Medium"/>
     <n v="7.99"/>
     <n v="2.75"/>
-    <n v="10.74"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="3"/>
@@ -4115,7 +5892,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="0"/>
@@ -4125,7 +5902,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="5"/>
@@ -4135,7 +5912,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="5"/>
@@ -4145,7 +5922,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="0"/>
@@ -4155,7 +5932,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="3"/>
@@ -4165,7 +5942,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -4175,7 +5952,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="2"/>
@@ -4185,7 +5962,7 @@
     <s v="VIP"/>
     <n v="19.989999999999998"/>
     <n v="7.25"/>
-    <n v="27.24"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="0"/>
@@ -4195,7 +5972,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -4205,7 +5982,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="5"/>
@@ -4215,7 +5992,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="4"/>
@@ -4225,7 +6002,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="1"/>
@@ -4235,7 +6012,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="2"/>
@@ -4245,7 +6022,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="1"/>
@@ -4255,7 +6032,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="5"/>
@@ -4265,7 +6042,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="0"/>
@@ -4275,7 +6052,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -4285,7 +6062,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="2"/>
@@ -4295,7 +6072,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="5"/>
@@ -4305,7 +6082,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
@@ -4315,7 +6092,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -4325,7 +6102,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -4335,7 +6112,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="2"/>
@@ -4345,7 +6122,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="2"/>
@@ -4355,7 +6132,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="4"/>
@@ -4365,7 +6142,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="3"/>
@@ -4375,7 +6152,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
@@ -4385,7 +6162,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="4"/>
@@ -4395,7 +6172,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -4405,7 +6182,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="5"/>
@@ -4415,7 +6192,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="2"/>
@@ -4425,7 +6202,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="4"/>
@@ -4435,7 +6212,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="5"/>
@@ -4445,7 +6222,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="3"/>
@@ -4455,7 +6232,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="0"/>
@@ -4465,7 +6242,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="3"/>
@@ -4475,7 +6252,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="3"/>
@@ -4485,7 +6262,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -4495,7 +6272,7 @@
     <s v="High"/>
     <n v="10.95"/>
     <n v="5"/>
-    <n v="15.95"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="5"/>
@@ -4505,7 +6282,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="5"/>
@@ -4515,7 +6292,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="0"/>
@@ -4525,7 +6302,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -4535,7 +6312,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="1"/>
@@ -4545,7 +6322,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="3"/>
@@ -4555,7 +6332,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="0"/>
@@ -4565,7 +6342,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="2"/>
@@ -4575,7 +6352,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="0"/>
@@ -4585,7 +6362,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="3"/>
@@ -4595,7 +6372,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="4"/>
@@ -4605,7 +6382,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="0"/>
@@ -4615,7 +6392,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
@@ -4625,7 +6402,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="3"/>
@@ -4635,7 +6412,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="5"/>
@@ -4645,7 +6422,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="1"/>
@@ -4655,7 +6432,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="4"/>
@@ -4665,7 +6442,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="0"/>
@@ -4675,7 +6452,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="3"/>
@@ -4685,7 +6462,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="0"/>
@@ -4695,7 +6472,7 @@
     <s v="High"/>
     <n v="14.96"/>
     <n v="5"/>
-    <n v="19.96"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="4"/>
@@ -4705,7 +6482,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="0"/>
@@ -4715,7 +6492,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="0"/>
@@ -4725,7 +6502,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="4"/>
@@ -4735,7 +6512,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="1"/>
@@ -4745,7 +6522,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -4755,7 +6532,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="0"/>
@@ -4765,7 +6542,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="0"/>
@@ -4775,7 +6552,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="4"/>
@@ -4785,7 +6562,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="1"/>
@@ -4795,7 +6572,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="0"/>
@@ -4805,7 +6582,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="4"/>
@@ -4815,7 +6592,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="5"/>
@@ -4825,7 +6602,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="1"/>
@@ -4835,7 +6612,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -4845,7 +6622,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="2"/>
@@ -4855,7 +6632,7 @@
     <s v="VIP"/>
     <n v="19.989999999999998"/>
     <n v="7.25"/>
-    <n v="27.24"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="0"/>
@@ -4865,7 +6642,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="2"/>
@@ -4875,7 +6652,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="3"/>
@@ -4885,7 +6662,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="0"/>
@@ -4895,7 +6672,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -4905,7 +6682,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="4"/>
@@ -4915,7 +6692,7 @@
     <s v="High"/>
     <n v="7.99"/>
     <n v="5"/>
-    <n v="12.99"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="5"/>
@@ -4925,7 +6702,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="5"/>
@@ -4935,7 +6712,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="3"/>
@@ -4945,7 +6722,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="5"/>
@@ -4955,7 +6732,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
@@ -4965,7 +6742,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -4975,7 +6752,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="1"/>
@@ -4985,7 +6762,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="0"/>
@@ -4995,7 +6772,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="3"/>
@@ -5005,7 +6782,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="2"/>
@@ -5015,7 +6792,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="3"/>
@@ -5025,7 +6802,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="2"/>
@@ -5035,7 +6812,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="2"/>
@@ -5045,7 +6822,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -5055,7 +6832,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="5"/>
@@ -5065,7 +6842,7 @@
     <s v="Medium"/>
     <n v="19.989999999999998"/>
     <n v="2.75"/>
-    <n v="22.74"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="0"/>
@@ -5075,7 +6852,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="3"/>
@@ -5085,7 +6862,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="2"/>
@@ -5095,7 +6872,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="5"/>
@@ -5105,7 +6882,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="2"/>
@@ -5115,7 +6892,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="2"/>
@@ -5125,7 +6902,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="2"/>
@@ -5135,7 +6912,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="3"/>
@@ -5145,7 +6922,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="3"/>
@@ -5155,7 +6932,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="1"/>
@@ -5165,7 +6942,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="5"/>
@@ -5175,7 +6952,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="0"/>
@@ -5185,7 +6962,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="3"/>
@@ -5195,7 +6972,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="2"/>
@@ -5205,7 +6982,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -5215,7 +6992,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="3"/>
@@ -5225,7 +7002,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="3"/>
@@ -5235,7 +7012,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="3"/>
@@ -5245,7 +7022,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="3"/>
@@ -5255,7 +7032,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="5"/>
@@ -5265,7 +7042,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="5"/>
@@ -5275,7 +7052,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
@@ -5285,7 +7062,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="3"/>
@@ -5295,7 +7072,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="1"/>
@@ -5305,7 +7082,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
@@ -5315,7 +7092,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -5325,7 +7102,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="3"/>
@@ -5335,7 +7112,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -5345,7 +7122,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="5"/>
@@ -5355,7 +7132,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="1"/>
@@ -5365,7 +7142,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="4"/>
@@ -5375,7 +7152,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="1"/>
@@ -5385,7 +7162,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="3"/>
@@ -5395,7 +7172,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="3"/>
@@ -5405,7 +7182,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="5"/>
@@ -5415,7 +7192,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
@@ -5425,7 +7202,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="4"/>
@@ -5435,7 +7212,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="1"/>
@@ -5445,7 +7222,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="4"/>
@@ -5455,7 +7232,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -5465,7 +7242,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="5"/>
@@ -5475,7 +7252,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -5485,7 +7262,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="5"/>
@@ -5495,7 +7272,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="5"/>
@@ -5505,7 +7282,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -5515,7 +7292,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="4"/>
@@ -5525,7 +7302,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="3"/>
@@ -5535,7 +7312,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="5"/>
@@ -5545,7 +7322,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
@@ -5555,7 +7332,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="4"/>
@@ -5565,7 +7342,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -5575,7 +7352,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="4"/>
@@ -5585,7 +7362,7 @@
     <s v="VIP"/>
     <n v="19.989999999999998"/>
     <n v="7.25"/>
-    <n v="27.24"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="1"/>
@@ -5595,7 +7372,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="0"/>
@@ -5605,7 +7382,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="5"/>
@@ -5615,7 +7392,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="3"/>
@@ -5625,7 +7402,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="0"/>
@@ -5635,7 +7412,7 @@
     <s v="Medium"/>
     <n v="15.99"/>
     <n v="2.75"/>
-    <n v="18.740000000000002"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="0"/>
@@ -5645,7 +7422,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="4"/>
@@ -5655,7 +7432,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -5665,7 +7442,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="1"/>
@@ -5675,7 +7452,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="5"/>
@@ -5685,7 +7462,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -5695,7 +7472,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -5705,7 +7482,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="3"/>
@@ -5715,7 +7492,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
@@ -5725,7 +7502,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -5735,7 +7512,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
@@ -5745,7 +7522,7 @@
     <s v="High"/>
     <n v="7.99"/>
     <n v="5"/>
-    <n v="12.99"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="0"/>
@@ -5755,7 +7532,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="0"/>
@@ -5765,7 +7542,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -5775,7 +7552,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="5"/>
@@ -5785,7 +7562,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -5795,7 +7572,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="4"/>
@@ -5805,7 +7582,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="0"/>
@@ -5815,7 +7592,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="0"/>
@@ -5825,7 +7602,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -5835,7 +7612,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="0"/>
@@ -5845,7 +7622,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="4"/>
@@ -5855,7 +7632,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -5865,7 +7642,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="2"/>
@@ -5875,7 +7652,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="0"/>
@@ -5885,7 +7662,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="1"/>
@@ -5895,7 +7672,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
@@ -5905,7 +7682,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -5915,7 +7692,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -5925,7 +7702,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="5"/>
@@ -5935,7 +7712,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="3"/>
@@ -5945,7 +7722,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="4"/>
@@ -5955,7 +7732,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="3"/>
@@ -5965,7 +7742,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="0"/>
@@ -5975,7 +7752,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="3"/>
@@ -5985,7 +7762,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -5995,7 +7772,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="4"/>
@@ -6005,7 +7782,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="3"/>
@@ -6015,7 +7792,7 @@
     <s v="Medium"/>
     <n v="7.99"/>
     <n v="2.75"/>
-    <n v="10.74"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="2"/>
@@ -6025,7 +7802,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="1"/>
@@ -6035,7 +7812,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="3"/>
@@ -6045,7 +7822,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="3"/>
@@ -6055,7 +7832,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="3"/>
@@ -6065,7 +7842,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="0"/>
@@ -6075,7 +7852,7 @@
     <s v="High"/>
     <n v="14.96"/>
     <n v="5"/>
-    <n v="19.96"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="1"/>
@@ -6085,7 +7862,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="5"/>
@@ -6095,7 +7872,7 @@
     <s v="High"/>
     <n v="14.96"/>
     <n v="5"/>
-    <n v="19.96"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="3"/>
@@ -6105,7 +7882,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="5"/>
@@ -6115,7 +7892,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="3"/>
@@ -6125,7 +7902,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="5"/>
@@ -6135,7 +7912,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="2"/>
@@ -6145,7 +7922,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="3"/>
@@ -6155,7 +7932,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
@@ -6165,7 +7942,7 @@
     <s v="Medium"/>
     <n v="13.28"/>
     <n v="2.75"/>
-    <n v="16.03"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="0"/>
@@ -6175,7 +7952,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="2"/>
@@ -6185,7 +7962,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="4"/>
@@ -6195,7 +7972,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="3"/>
@@ -6205,7 +7982,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="2"/>
@@ -6215,7 +7992,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="1"/>
@@ -6225,7 +8002,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="1"/>
@@ -6235,7 +8012,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
@@ -6245,7 +8022,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="0"/>
@@ -6255,7 +8032,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="5"/>
@@ -6265,7 +8042,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="4"/>
@@ -6275,7 +8052,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="0"/>
@@ -6285,7 +8062,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="1"/>
@@ -6295,7 +8072,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="2"/>
@@ -6305,7 +8082,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="3"/>
@@ -6315,7 +8092,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="0"/>
@@ -6325,7 +8102,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="1"/>
@@ -6335,7 +8112,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="0"/>
@@ -6345,7 +8122,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="0"/>
@@ -6355,7 +8132,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -6365,7 +8142,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="0"/>
@@ -6375,7 +8152,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="3"/>
@@ -6385,7 +8162,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="4"/>
@@ -6395,7 +8172,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="1"/>
@@ -6405,7 +8182,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -6415,7 +8192,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -6425,7 +8202,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="5"/>
@@ -6435,7 +8212,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="5"/>
@@ -6445,7 +8222,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="1"/>
@@ -6455,7 +8232,7 @@
     <s v="High"/>
     <n v="7.99"/>
     <n v="5"/>
-    <n v="12.99"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="3"/>
@@ -6465,7 +8242,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="4"/>
@@ -6475,7 +8252,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="4"/>
@@ -6485,7 +8262,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="3"/>
@@ -6495,7 +8272,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="5"/>
@@ -6505,7 +8282,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -6515,7 +8292,7 @@
     <s v="High"/>
     <n v="7.99"/>
     <n v="5"/>
-    <n v="12.99"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="5"/>
@@ -6525,7 +8302,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="3"/>
@@ -6535,7 +8312,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="0"/>
@@ -6545,7 +8322,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="0"/>
@@ -6555,7 +8332,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="4"/>
@@ -6565,7 +8342,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="1"/>
@@ -6575,7 +8352,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -6585,7 +8362,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="0"/>
@@ -6595,7 +8372,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="0"/>
@@ -6605,7 +8382,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="3"/>
@@ -6615,7 +8392,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -6625,7 +8402,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="1"/>
@@ -6635,7 +8412,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="3"/>
@@ -6645,7 +8422,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="4"/>
@@ -6655,7 +8432,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="0"/>
@@ -6665,7 +8442,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="3"/>
@@ -6675,7 +8452,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="1"/>
@@ -6685,7 +8462,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="5"/>
@@ -6695,7 +8472,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="1"/>
@@ -6705,7 +8482,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="2"/>
@@ -6715,7 +8492,7 @@
     <s v="High"/>
     <n v="19.989999999999998"/>
     <n v="5"/>
-    <n v="24.99"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="4"/>
@@ -6725,7 +8502,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
@@ -6735,7 +8512,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="4"/>
@@ -6745,7 +8522,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="5"/>
@@ -6755,7 +8532,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -6765,7 +8542,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -6775,7 +8552,7 @@
     <s v="Medium"/>
     <n v="13.28"/>
     <n v="2.75"/>
-    <n v="16.03"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="2"/>
@@ -6785,7 +8562,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="2"/>
@@ -6795,7 +8572,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="2"/>
@@ -6805,7 +8582,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="1"/>
@@ -6815,7 +8592,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -6825,7 +8602,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="2"/>
@@ -6835,7 +8612,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="2"/>
@@ -6845,7 +8622,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="0"/>
@@ -6855,7 +8632,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="3"/>
@@ -6865,7 +8642,7 @@
     <s v="VIP"/>
     <n v="19.989999999999998"/>
     <n v="7.25"/>
-    <n v="27.24"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="2"/>
@@ -6875,7 +8652,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="3"/>
@@ -6885,7 +8662,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="5"/>
@@ -6895,7 +8672,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -6905,7 +8682,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="2"/>
@@ -6915,7 +8692,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="4"/>
@@ -6925,7 +8702,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="1"/>
@@ -6935,7 +8712,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -6945,7 +8722,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="4"/>
@@ -6955,7 +8732,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="5"/>
@@ -6965,7 +8742,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="5"/>
@@ -6975,7 +8752,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="4"/>
@@ -6985,7 +8762,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="5"/>
@@ -6995,7 +8772,7 @@
     <s v="VIP"/>
     <n v="10.95"/>
     <n v="7.25"/>
-    <n v="18.2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -7005,7 +8782,7 @@
     <s v="Medium"/>
     <n v="21.99"/>
     <n v="2.75"/>
-    <n v="24.74"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="1"/>
@@ -7015,7 +8792,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="3"/>
@@ -7025,7 +8802,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="0"/>
@@ -7035,7 +8812,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="2"/>
@@ -7045,7 +8822,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -7055,7 +8832,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="0"/>
@@ -7065,7 +8842,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="0"/>
@@ -7075,7 +8852,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="4"/>
@@ -7085,7 +8862,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="4"/>
@@ -7095,7 +8872,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="3"/>
@@ -7105,7 +8882,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="0"/>
@@ -7115,7 +8892,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="4"/>
@@ -7125,7 +8902,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="1"/>
@@ -7135,7 +8912,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="1"/>
@@ -7145,7 +8922,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -7155,7 +8932,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="4"/>
@@ -7165,7 +8942,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
@@ -7175,7 +8952,7 @@
     <s v="High"/>
     <n v="10.95"/>
     <n v="5"/>
-    <n v="15.95"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="4"/>
@@ -7185,7 +8962,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="4"/>
@@ -7195,7 +8972,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="1"/>
@@ -7205,7 +8982,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="3"/>
@@ -7215,7 +8992,7 @@
     <s v="High"/>
     <n v="10.95"/>
     <n v="5"/>
-    <n v="15.95"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="0"/>
@@ -7225,7 +9002,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="0"/>
@@ -7235,7 +9012,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="4"/>
@@ -7245,7 +9022,7 @@
     <s v="VIP"/>
     <n v="21.99"/>
     <n v="7.25"/>
-    <n v="29.24"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="2"/>
@@ -7255,7 +9032,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="2"/>
@@ -7265,7 +9042,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="5"/>
@@ -7275,7 +9052,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="3"/>
@@ -7285,7 +9062,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
@@ -7295,7 +9072,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="2"/>
@@ -7305,7 +9082,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="4"/>
@@ -7315,7 +9092,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -7325,7 +9102,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="4"/>
@@ -7335,7 +9112,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
@@ -7345,7 +9122,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="3"/>
@@ -7355,7 +9132,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="2"/>
@@ -7365,7 +9142,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="5"/>
@@ -7375,7 +9152,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="1"/>
@@ -7385,7 +9162,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -7395,7 +9172,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="3"/>
@@ -7405,7 +9182,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="1"/>
@@ -7415,7 +9192,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="2"/>
@@ -7425,7 +9202,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -7435,7 +9212,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="4"/>
@@ -7445,7 +9222,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="2"/>
@@ -7455,7 +9232,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="4"/>
@@ -7465,7 +9242,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="4"/>
@@ -7475,7 +9252,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="1"/>
@@ -7485,7 +9262,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="5"/>
@@ -7495,7 +9272,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="0"/>
@@ -7505,7 +9282,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="0"/>
@@ -7515,7 +9292,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="5"/>
@@ -7525,7 +9302,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -7535,7 +9312,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="1"/>
@@ -7545,7 +9322,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="3"/>
@@ -7555,7 +9332,7 @@
     <s v="High"/>
     <n v="14.96"/>
     <n v="5"/>
-    <n v="19.96"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="2"/>
@@ -7565,7 +9342,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="5"/>
@@ -7575,7 +9352,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="3"/>
@@ -7585,7 +9362,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
@@ -7595,7 +9372,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="1"/>
@@ -7605,7 +9382,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -7615,7 +9392,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="0"/>
@@ -7625,7 +9402,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="1"/>
@@ -7635,7 +9412,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="4"/>
@@ -7645,7 +9422,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="0"/>
@@ -7655,7 +9432,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
@@ -7665,7 +9442,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="5"/>
@@ -7675,7 +9452,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="5"/>
@@ -7685,7 +9462,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="1"/>
@@ -7695,7 +9472,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="0"/>
@@ -7705,7 +9482,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="5"/>
@@ -7715,7 +9492,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="4"/>
@@ -7725,7 +9502,7 @@
     <s v="Low"/>
     <n v="21.99"/>
     <n v="0.5"/>
-    <n v="22.49"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="5"/>
@@ -7735,7 +9512,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="5"/>
@@ -7745,7 +9522,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="2"/>
@@ -7755,7 +9532,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="0"/>
@@ -7765,7 +9542,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="3"/>
@@ -7775,7 +9552,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="0"/>
@@ -7785,7 +9562,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="4"/>
@@ -7795,7 +9572,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="5"/>
@@ -7805,7 +9582,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="4"/>
@@ -7815,7 +9592,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="5"/>
@@ -7825,7 +9602,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="1"/>
@@ -7835,7 +9612,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="2"/>
@@ -7845,7 +9622,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -7855,7 +9632,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="0"/>
@@ -7865,7 +9642,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="3"/>
@@ -7875,7 +9652,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="5"/>
@@ -7885,7 +9662,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="4"/>
@@ -7895,7 +9672,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
@@ -7905,7 +9682,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="5"/>
@@ -7915,7 +9692,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -7925,7 +9702,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="1"/>
@@ -7935,7 +9712,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="3"/>
@@ -7945,7 +9722,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="2"/>
@@ -7955,7 +9732,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="3"/>
@@ -7965,7 +9742,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="2"/>
@@ -7975,7 +9752,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="3"/>
@@ -7985,7 +9762,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="4"/>
@@ -7995,7 +9772,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="0"/>
@@ -8005,7 +9782,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -8015,7 +9792,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="0"/>
@@ -8025,7 +9802,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="3"/>
@@ -8035,7 +9812,7 @@
     <s v="VIP"/>
     <n v="7.99"/>
     <n v="7.25"/>
-    <n v="15.24"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="4"/>
@@ -8045,7 +9822,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="1"/>
@@ -8055,7 +9832,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
@@ -8065,7 +9842,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="0"/>
@@ -8075,7 +9852,7 @@
     <s v="High"/>
     <n v="31.99"/>
     <n v="5"/>
-    <n v="36.989999999999995"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="3"/>
@@ -8085,7 +9862,7 @@
     <s v="High"/>
     <n v="15.99"/>
     <n v="5"/>
-    <n v="20.990000000000002"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -8095,7 +9872,7 @@
     <s v="High"/>
     <n v="14.96"/>
     <n v="5"/>
-    <n v="19.96"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="4"/>
@@ -8105,7 +9882,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="3"/>
@@ -8115,7 +9892,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="5"/>
@@ -8125,7 +9902,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
@@ -8135,7 +9912,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="0"/>
@@ -8145,7 +9922,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="2"/>
@@ -8155,7 +9932,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -8165,7 +9942,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -8175,7 +9952,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="5"/>
@@ -8185,7 +9962,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="2"/>
@@ -8195,7 +9972,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="1"/>
@@ -8205,7 +9982,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -8215,7 +9992,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
@@ -8225,7 +10002,7 @@
     <s v="Low"/>
     <n v="7.95"/>
     <n v="0.5"/>
-    <n v="8.4499999999999993"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="3"/>
@@ -8235,7 +10012,7 @@
     <s v="VIP"/>
     <n v="31.99"/>
     <n v="7.25"/>
-    <n v="39.239999999999995"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="2"/>
@@ -8245,7 +10022,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="3"/>
@@ -8255,7 +10032,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="1"/>
@@ -8265,7 +10042,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="3"/>
@@ -8275,7 +10052,7 @@
     <s v="Medium"/>
     <n v="7.95"/>
     <n v="2.75"/>
-    <n v="10.7"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="1"/>
@@ -8285,7 +10062,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="3"/>
@@ -8295,7 +10072,7 @@
     <s v="Medium"/>
     <n v="13.28"/>
     <n v="2.75"/>
-    <n v="16.03"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="4"/>
@@ -8305,7 +10082,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
@@ -8315,7 +10092,7 @@
     <s v="Low"/>
     <n v="19.96"/>
     <n v="0.5"/>
-    <n v="20.46"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="2"/>
@@ -8325,7 +10102,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="3"/>
@@ -8335,7 +10112,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="4"/>
@@ -8345,7 +10122,7 @@
     <s v="Medium"/>
     <n v="31.99"/>
     <n v="2.75"/>
-    <n v="34.739999999999995"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
@@ -8355,7 +10132,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="0"/>
@@ -8365,7 +10142,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -8375,7 +10152,7 @@
     <s v="Low"/>
     <n v="7.75"/>
     <n v="0.5"/>
-    <n v="8.25"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="0"/>
@@ -8385,7 +10162,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="4"/>
@@ -8395,7 +10172,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="2"/>
@@ -8405,7 +10182,7 @@
     <s v="VIP"/>
     <n v="109.99"/>
     <n v="7.25"/>
-    <n v="117.24"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="5"/>
@@ -8415,7 +10192,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="5"/>
@@ -8425,7 +10202,7 @@
     <s v="Low"/>
     <n v="15.99"/>
     <n v="0.5"/>
-    <n v="16.490000000000002"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="4"/>
@@ -8435,7 +10212,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="1"/>
@@ -8445,7 +10222,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="1"/>
@@ -8455,7 +10232,7 @@
     <s v="VIP"/>
     <n v="15.99"/>
     <n v="7.25"/>
-    <n v="23.240000000000002"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="1"/>
@@ -8465,7 +10242,7 @@
     <s v="Low"/>
     <n v="19.989999999999998"/>
     <n v="0.5"/>
-    <n v="20.49"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="1"/>
@@ -8475,7 +10252,7 @@
     <s v="VIP"/>
     <n v="19.96"/>
     <n v="7.25"/>
-    <n v="27.21"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="1"/>
@@ -8485,7 +10262,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="0"/>
@@ -8495,7 +10272,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="1"/>
@@ -8505,7 +10282,7 @@
     <s v="Low"/>
     <n v="10.95"/>
     <n v="0.5"/>
-    <n v="11.45"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
@@ -8515,7 +10292,7 @@
     <s v="VIP"/>
     <n v="9.99"/>
     <n v="7.25"/>
-    <n v="17.240000000000002"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="0"/>
@@ -8525,7 +10302,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="1"/>
@@ -8535,7 +10312,7 @@
     <s v="Low"/>
     <n v="9.99"/>
     <n v="0.5"/>
-    <n v="10.49"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="5"/>
@@ -8545,7 +10322,7 @@
     <s v="High"/>
     <n v="7.95"/>
     <n v="5"/>
-    <n v="12.95"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="5"/>
@@ -8555,7 +10332,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="2"/>
@@ -8565,7 +10342,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
@@ -8575,7 +10352,7 @@
     <s v="VIP"/>
     <n v="6.76"/>
     <n v="7.25"/>
-    <n v="14.01"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="4"/>
@@ -8585,7 +10362,7 @@
     <s v="VIP"/>
     <n v="7.75"/>
     <n v="7.25"/>
-    <n v="15"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="4"/>
@@ -8595,7 +10372,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -8605,7 +10382,7 @@
     <s v="Medium"/>
     <n v="3.99"/>
     <n v="2.75"/>
-    <n v="6.74"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
@@ -8615,7 +10392,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="0"/>
@@ -8625,7 +10402,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="5"/>
@@ -8635,7 +10412,7 @@
     <s v="VIP"/>
     <n v="4.42"/>
     <n v="7.25"/>
-    <n v="11.67"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="1"/>
@@ -8645,7 +10422,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="3"/>
@@ -8655,7 +10432,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="1"/>
@@ -8665,7 +10442,7 @@
     <s v="Low"/>
     <n v="4.42"/>
     <n v="0.5"/>
-    <n v="4.92"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="5"/>
@@ -8675,7 +10452,7 @@
     <s v="High"/>
     <n v="13.28"/>
     <n v="5"/>
-    <n v="18.28"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="0"/>
@@ -8685,7 +10462,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="0"/>
@@ -8695,7 +10472,7 @@
     <s v="Medium"/>
     <n v="19.989999999999998"/>
     <n v="2.75"/>
-    <n v="22.74"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="1"/>
@@ -8705,7 +10482,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="2"/>
@@ -8715,7 +10492,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -8725,7 +10502,7 @@
     <s v="VIP"/>
     <n v="3.99"/>
     <n v="7.25"/>
-    <n v="11.24"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="2"/>
@@ -8735,7 +10512,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="1"/>
@@ -8745,7 +10522,7 @@
     <s v="High"/>
     <n v="109.99"/>
     <n v="5"/>
-    <n v="114.99"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="1"/>
@@ -8755,7 +10532,7 @@
     <s v="Medium"/>
     <n v="19.96"/>
     <n v="2.75"/>
-    <n v="22.71"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="1"/>
@@ -8765,7 +10542,7 @@
     <s v="Low"/>
     <n v="7.99"/>
     <n v="0.5"/>
-    <n v="8.49"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -8775,7 +10552,7 @@
     <s v="Medium"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="10.5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
@@ -8785,7 +10562,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="3"/>
@@ -8795,7 +10572,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -8805,7 +10582,7 @@
     <s v="VIP"/>
     <n v="13.28"/>
     <n v="7.25"/>
-    <n v="20.53"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="5"/>
@@ -8815,7 +10592,7 @@
     <s v="High"/>
     <n v="19.96"/>
     <n v="5"/>
-    <n v="24.96"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
@@ -8825,7 +10602,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="2"/>
@@ -8835,7 +10612,7 @@
     <s v="Medium"/>
     <n v="10.95"/>
     <n v="2.75"/>
-    <n v="13.7"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="5"/>
@@ -8845,7 +10622,7 @@
     <s v="VIP"/>
     <n v="7.95"/>
     <n v="7.25"/>
-    <n v="15.2"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -8855,7 +10632,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="2"/>
@@ -8865,7 +10642,7 @@
     <s v="High"/>
     <n v="3.99"/>
     <n v="5"/>
-    <n v="8.99"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="4"/>
@@ -8875,7 +10652,7 @@
     <s v="Low"/>
     <n v="31.99"/>
     <n v="0.5"/>
-    <n v="32.489999999999995"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -8885,7 +10662,7 @@
     <s v="High"/>
     <n v="21.99"/>
     <n v="5"/>
-    <n v="26.99"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="4"/>
@@ -8895,7 +10672,7 @@
     <s v="High"/>
     <n v="9.99"/>
     <n v="5"/>
-    <n v="14.99"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="1"/>
@@ -8905,7 +10682,7 @@
     <s v="Medium"/>
     <n v="6.76"/>
     <n v="2.75"/>
-    <n v="9.51"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="3"/>
@@ -8915,7 +10692,7 @@
     <s v="High"/>
     <n v="7.75"/>
     <n v="5"/>
-    <n v="12.75"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="2"/>
@@ -8925,7 +10702,7 @@
     <s v="Low"/>
     <n v="3.99"/>
     <n v="0.5"/>
-    <n v="4.49"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="1"/>
@@ -8935,7 +10712,7 @@
     <s v="Low"/>
     <n v="14.96"/>
     <n v="0.5"/>
-    <n v="15.46"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="0"/>
@@ -8945,7 +10722,7 @@
     <s v="Medium"/>
     <n v="9.99"/>
     <n v="2.75"/>
-    <n v="12.74"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="2"/>
@@ -8955,7 +10732,7 @@
     <s v="Medium"/>
     <n v="109.99"/>
     <n v="2.75"/>
-    <n v="112.74"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="3"/>
@@ -8965,7 +10742,7 @@
     <s v="VIP"/>
     <n v="14.96"/>
     <n v="7.25"/>
-    <n v="22.21"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="0"/>
@@ -8975,7 +10752,7 @@
     <s v="Medium"/>
     <n v="14.96"/>
     <n v="2.75"/>
-    <n v="17.71"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="3"/>
@@ -8985,7 +10762,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
@@ -8995,7 +10772,7 @@
     <s v="High"/>
     <n v="6.76"/>
     <n v="5"/>
-    <n v="11.76"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
@@ -9005,7 +10782,7 @@
     <s v="High"/>
     <n v="4.42"/>
     <n v="5"/>
-    <n v="9.42"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="0"/>
@@ -9015,7 +10792,7 @@
     <s v="Low"/>
     <n v="13.28"/>
     <n v="0.5"/>
-    <n v="13.78"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="1"/>
@@ -9025,7 +10802,7 @@
     <s v="Low"/>
     <n v="109.99"/>
     <n v="0.5"/>
-    <n v="110.49"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="1"/>
@@ -9035,7 +10812,7 @@
     <s v="Low"/>
     <n v="6.76"/>
     <n v="0.5"/>
-    <n v="7.26"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="3"/>
@@ -9045,7 +10822,7 @@
     <s v="Medium"/>
     <n v="4.42"/>
     <n v="2.75"/>
-    <n v="7.17"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="6"/>
@@ -9055,13 +10832,13 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <x v="64"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A8617BB-3732-44F9-8042-8BFC14464757}" name="PivotTable1" cacheId="266" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A8617BB-3732-44F9-8042-8BFC14464757}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9162,7 +10939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E620D9-BA7A-4AF0-8F58-6933B4BDEF87}" name="PivotTable2" cacheId="267" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E620D9-BA7A-4AF0-8F58-6933B4BDEF87}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -9338,11 +11115,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B096C60-D286-4E9C-8E2A-EECFC9AB90FD}" name="PivotTable4" cacheId="305" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B096C60-D286-4E9C-8E2A-EECFC9AB90FD}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
-      <items count="103">
+      <items count="8">
         <item h="1" x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9350,101 +11127,6 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9454,29 +11136,92 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="66">
+        <item x="35"/>
+        <item x="31"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="62"/>
+        <item x="50"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="38"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="48"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="53"/>
+        <item x="57"/>
+        <item x="60"/>
+        <item x="24"/>
+        <item x="54"/>
+        <item x="41"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="39"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="33"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="45"/>
+        <item x="58"/>
+        <item x="19"/>
+        <item x="32"/>
+        <item x="59"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="10"/>
+        <item x="61"/>
+        <item x="44"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="37"/>
+        <item x="30"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="63"/>
+        <item x="43"/>
+        <item x="34"/>
+        <item x="42"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item h="1" x="64"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="100"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -9895,8 +11640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B67A28-234C-4AD4-A92B-BF46B8F0810C}">
   <dimension ref="A3:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10116,10 +11861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6CA51-4002-4E18-AC0E-96F10DE13672}">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10128,6 +11873,8 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="66" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10151,7 +11898,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="4">
-        <v>18.73536082474228</v>
+        <v>22.029162561576307</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10159,7 +11906,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="4">
-        <v>25.043301886792445</v>
+        <v>25.641084337349408</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10167,31 +11914,15 @@
         <v>40</v>
       </c>
       <c r="B7" s="4">
-        <v>25.641084337349408</v>
+        <v>20.501666666666633</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>19.159270833333345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4">
-        <v>21.694907407407413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4">
-        <v>22.3786666666666</v>
+        <v>22.378666666666604</v>
       </c>
     </row>
   </sheetData>
